--- a/Programme Structure Notes.xlsx
+++ b/Programme Structure Notes.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2956cac97e76362d/Documents/Udacity/Full Stack Developer/UdacityFyyurApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{E0A1DD99-44DE-BC47-89C9-0C5E9958926F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7B9B36B-F116-BD4B-94C9-83AF3DF808A2}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{E0A1DD99-44DE-BC47-89C9-0C5E9958926F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCD1DF81-EDAB-754C-A43F-2A849D776560}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{555FCE1F-713B-CC45-B3ED-A004DF5E5599}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" activeTab="2" xr2:uid="{555FCE1F-713B-CC45-B3ED-A004DF5E5599}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="app.py" sheetId="1" r:id="rId1"/>
+    <sheet name="TODOs" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>Filename</t>
   </si>
@@ -295,16 +297,126 @@
   </si>
   <si>
     <t>errors/500.html</t>
+  </si>
+  <si>
+    <t>TODO_ID</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Connect to a local postgresql database</t>
+  </si>
+  <si>
+    <t>ACTIONS</t>
+  </si>
+  <si>
+    <t>Create database in Postgresql. Database name = 'fyyurdev'.</t>
+  </si>
+  <si>
+    <t>Implement database URL</t>
+  </si>
+  <si>
+    <t>In 'config.py' set SQLALCHEMY_DATABASE_URI' property to 'postgresql://stephenusher@localhost:5432/fyyurdev'</t>
+  </si>
+  <si>
+    <t>TOPIC</t>
+  </si>
+  <si>
+    <t>app.py App Config / config.py</t>
+  </si>
+  <si>
+    <t>Implement any missing fields, as a database migration using Flask-Migrate</t>
+  </si>
+  <si>
+    <t>app.py Models - Venue table</t>
+  </si>
+  <si>
+    <t>app.py Models - Artist table</t>
+  </si>
+  <si>
+    <t>Venue Table</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>venueid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>image_link</t>
+  </si>
+  <si>
+    <t>facebook_link</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Nullable</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>nextval</t>
+  </si>
+  <si>
+    <t>Artist Table</t>
+  </si>
+  <si>
+    <t>artistid</t>
+  </si>
+  <si>
+    <t>genres</t>
+  </si>
+  <si>
+    <t>Shows Table</t>
+  </si>
+  <si>
+    <t>showid</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -326,22 +438,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -364,7 +500,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{068589CB-428E-EF43-8755-5F097C32ED57}" name="tblDefinitions" displayName="tblDefinitions" ref="A6:J30" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{068589CB-428E-EF43-8755-5F097C32ED57}" name="tblDefinitions" displayName="tblDefinitions" ref="A6:J30" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A6:J30" xr:uid="{6DCD076B-5333-DB4A-BE4A-FA4F1E7F6493}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{83020542-A296-FF4E-A814-761D700167F7}" name="Filename"/>
@@ -377,6 +513,60 @@
     <tableColumn id="7" xr3:uid="{DD3B95DC-CBA0-804B-8F3A-7397DDCDEEC4}" name="render_template"/>
     <tableColumn id="10" xr3:uid="{F4D1FDFF-0776-3D46-92B7-D3BEAA6ACF6F}" name="redirect"/>
     <tableColumn id="8" xr3:uid="{38E9AFD3-3301-4E42-B09E-B5DC52C127D5}" name="Arguments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC0CDB06-FEC7-D84F-B9DD-4D196A1949B0}" name="tblTODOs" displayName="tblTODOs" ref="A2:D6" totalsRowShown="0">
+  <autoFilter ref="A2:D6" xr:uid="{1E4EC6F8-0C5E-6945-9662-49B8EB2C07DB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A95F7019-5E28-524D-83A6-A5611E0576DB}" name="TODO_ID">
+      <calculatedColumnFormula>ROW()-ROW(tblTODOs[[#Headers],[TODO_ID]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A52273C0-27BB-6B4E-9E52-DEC35D6C0210}" name="TOPIC"/>
+    <tableColumn id="2" xr3:uid="{95895B59-F466-F243-84CB-FC695194C01D}" name="TODO" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D17CC623-F83C-1747-9AE1-BEC06C99FD1E}" name="ACTIONS" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{46588EB7-82DF-0A44-8D62-0EC38B84D9E2}" name="tblVenue" displayName="tblVenue" ref="A2:D10" totalsRowShown="0">
+  <autoFilter ref="A2:D10" xr:uid="{FEC558B2-F5B2-6541-A436-E6D3330AC95E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{96B9F058-3E85-0C41-8A27-FD1D04583240}" name="Columns"/>
+    <tableColumn id="2" xr3:uid="{804603E0-B7B8-D44B-B573-888FC2AB4019}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{4222E3E5-75C9-894F-86FD-9CEB079BDE49}" name="Nullable"/>
+    <tableColumn id="4" xr3:uid="{9AE881F1-4B45-B940-A278-462D3C161F55}" name="DEFAULT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{018F0DDF-0BDA-1A40-8F73-844AC216A597}" name="tblArtist" displayName="tblArtist" ref="H2:K10" totalsRowShown="0">
+  <autoFilter ref="H2:K10" xr:uid="{DBD6B80D-CBDB-BF48-B367-678C7A50C2F7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6B88E337-EE5E-0344-AC20-FD4D27453A52}" name="Columns"/>
+    <tableColumn id="2" xr3:uid="{6C3A478B-C041-3A4E-A99B-AFFE32C5E8FC}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{BA58FD9F-F6C9-AD45-BF4E-7377E9166E00}" name="Nullable"/>
+    <tableColumn id="4" xr3:uid="{FE17DA9B-25EF-D24E-8BB3-4CFBBE76E069}" name="DEFAULT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BC30325-CA39-FF45-80DF-5605DB31B96E}" name="tblShows" displayName="tblShows" ref="O2:R6" totalsRowShown="0">
+  <autoFilter ref="O2:R6" xr:uid="{9DECD6D3-1D69-B04A-9090-1510EBDE1600}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{49305864-2AF0-7A4E-82FF-C0B805EE5A2D}" name="Columns"/>
+    <tableColumn id="2" xr3:uid="{E2F3015D-A464-BB46-8B37-9480D166C089}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{288C38BC-51FE-0F42-B70C-217498C9420B}" name="Nullable"/>
+    <tableColumn id="4" xr3:uid="{2FF1202D-5F8E-E840-BDA3-2B26676F62C5}" name="DEFAULT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -682,8 +872,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -733,10 +923,12 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1308,9 +1500,388 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5E9BC5-2D8A-394F-A01E-DEC378B9F1E3}">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.25" customWidth="1"/>
+    <col min="4" max="4" width="103.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <f>ROW()-ROW(tblTODOs[[#Headers],[TODO_ID]])</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <f>ROW()-ROW(tblTODOs[[#Headers],[TODO_ID]])</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f>ROW()-ROW(tblTODOs[[#Headers],[TODO_ID]])</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f>ROW()-ROW(tblTODOs[[#Headers],[TODO_ID]])</f>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A709941-F060-6F43-B6F6-FD4C64FD1E5C}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>